--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="886">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test4/Soluzioni-4.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="886">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31277,7 +31277,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>89</v>
@@ -31307,7 +31307,7 @@
         <v>89</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>89</v>
@@ -31322,7 +31322,7 @@
         <v>89</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>89</v>
@@ -31346,7 +31346,7 @@
         <v>89</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="AD6" s="5" t="s">
         <v>89</v>
@@ -31991,7 +31991,7 @@
         <v>89</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>89</v>
@@ -32006,7 +32006,7 @@
         <v>89</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>89</v>
@@ -32042,7 +32042,7 @@
         <v>89</v>
       </c>
       <c r="AC12" s="5" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="AD12" s="5" t="s">
         <v>89</v>
@@ -32054,10 +32054,10 @@
         <v>89</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="AI12" s="5" t="s">
         <v>89</v>
@@ -32104,13 +32104,13 @@
         <v>89</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>89</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>89</v>
@@ -32119,7 +32119,7 @@
         <v>89</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>89</v>
@@ -32134,7 +32134,7 @@
         <v>89</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>89</v>
@@ -32193,13 +32193,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>89</v>
@@ -32217,7 +32217,7 @@
         <v>89</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>89</v>
@@ -32229,7 +32229,7 @@
         <v>89</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>89</v>
@@ -32253,7 +32253,7 @@
         <v>89</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>89</v>
@@ -32265,7 +32265,7 @@
         <v>89</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>89</v>
@@ -32283,7 +32283,7 @@
         <v>89</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>89</v>
@@ -32295,7 +32295,7 @@
         <v>89</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="AK14" s="5" t="s">
         <v>89</v>
@@ -32348,7 +32348,7 @@
         <v>89</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>89</v>
@@ -32678,7 +32678,7 @@
         <v>89</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>89</v>
@@ -32699,13 +32699,13 @@
         <v>89</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="S18" s="5" t="s">
         <v>89</v>
@@ -32714,7 +32714,7 @@
         <v>89</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>89</v>
@@ -32750,10 +32750,10 @@
         <v>89</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="AI18" s="5" t="s">
         <v>89</v>
@@ -32762,7 +32762,7 @@
         <v>89</v>
       </c>
       <c r="AK18" s="5" t="s">
-        <v>877</v>
+        <v>863</v>
       </c>
       <c r="AL18" s="5" t="s">
         <v>89</v>
@@ -32898,7 +32898,7 @@
         <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>89</v>
@@ -32907,7 +32907,7 @@
         <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>89</v>
@@ -32916,7 +32916,7 @@
         <v>89</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>89</v>
@@ -32931,7 +32931,7 @@
         <v>89</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="5" t="s">
         <v>89</v>
@@ -32940,13 +32940,13 @@
         <v>89</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>89</v>
@@ -32964,19 +32964,19 @@
         <v>89</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AC20" s="5" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="AD20" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="AF20" s="5" t="s">
         <v>89</v>
@@ -32985,10 +32985,10 @@
         <v>89</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="AI20" s="5" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="AJ20" s="5" t="s">
         <v>89</v>
@@ -33490,10 +33490,10 @@
         <v>89</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>89</v>
@@ -33514,7 +33514,7 @@
         <v>89</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>89</v>
@@ -33529,7 +33529,7 @@
         <v>89</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>89</v>
@@ -33538,7 +33538,7 @@
         <v>89</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>89</v>
@@ -33562,7 +33562,7 @@
         <v>89</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="AH25" s="5" t="s">
         <v>89</v>
@@ -33574,7 +33574,7 @@
         <v>89</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>878</v>
+        <v>864</v>
       </c>
       <c r="AL25" s="5" t="s">
         <v>89</v>
@@ -33817,31 +33817,31 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K28" s="5" t="s">
         <v>89</v>
@@ -33862,13 +33862,13 @@
         <v>89</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>89</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>89</v>
@@ -33877,13 +33877,13 @@
         <v>89</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>89</v>
@@ -33892,10 +33892,10 @@
         <v>89</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AC28" s="5" t="s">
         <v>89</v>
@@ -33904,25 +33904,25 @@
         <v>89</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="AK28" s="5" t="s">
-        <v>879</v>
+        <v>865</v>
       </c>
       <c r="AL28" s="5" t="s">
         <v>89</v>
@@ -34052,7 +34052,7 @@
         <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>89</v>
@@ -34133,7 +34133,7 @@
         <v>89</v>
       </c>
       <c r="AD30" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AE30" s="5" t="s">
         <v>89</v>
@@ -34148,7 +34148,7 @@
         <v>89</v>
       </c>
       <c r="AI30" s="5" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="AJ30" s="5" t="s">
         <v>89</v>
@@ -35085,7 +35085,7 @@
         <v>89</v>
       </c>
       <c r="AL38" s="5" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
@@ -35093,115 +35093,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40">
@@ -35209,115 +35209,115 @@
         <v>87</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41">
@@ -35325,115 +35325,115 @@
         <v>88</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>119</v>
+        <v>245</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>119</v>
+        <v>307</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>119</v>
+        <v>324</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>119</v>
+        <v>422</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>119</v>
+        <v>458</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>119</v>
+        <v>499</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>119</v>
+        <v>536</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>119</v>
+        <v>563</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>119</v>
+        <v>586</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>119</v>
+        <v>603</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>119</v>
+        <v>616</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>119</v>
+        <v>638</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>119</v>
+        <v>673</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>119</v>
+        <v>700</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>119</v>
+        <v>734</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>119</v>
+        <v>774</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>119</v>
+        <v>807</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>119</v>
+        <v>835</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>119</v>
+        <v>866</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42">
